--- a/documents/小程序产品分类.xlsx
+++ b/documents/小程序产品分类.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="创建用户填写表" sheetId="1" r:id="rId1"/>
+    <sheet name="小程序类目" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>卫浴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>淋浴房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +285,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +322,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,7 +354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -330,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -355,9 +391,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="4" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="计算" xfId="3" builtinId="22"/>
@@ -660,11 +699,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="42" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="42" customHeight="1">
       <c r="G2" s="1"/>
@@ -672,6 +716,17 @@
     <row r="4" spans="1:7" ht="42" customHeight="1">
       <c r="C4" s="2"/>
     </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" ht="42" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>0</v>
@@ -785,7 +840,7 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="42" customHeight="1">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -843,7 +898,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" ht="42" customHeight="1">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="5" t="s">
